--- a/posesiones/1381305.xlsx
+++ b/posesiones/1381305.xlsx
@@ -1874,10 +1874,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2068,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>19</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2171,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>24</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2274,7 +2274,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>19</v>
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12">
         <v>16</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2427,7 +2427,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R14">
         <v>23</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R16">
         <v>21</v>
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2671,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2721,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R20">
         <v>27</v>
@@ -2774,7 +2774,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R21">
         <v>18</v>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2877,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R23">
         <v>14</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2980,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R25">
         <v>4</v>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3130,7 +3130,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R28">
         <v>11</v>
@@ -3183,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R29">
         <v>15</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3283,7 +3283,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R31">
         <v>6</v>
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3477,7 +3477,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R35">
         <v>26</v>
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3624,7 +3624,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R38">
         <v>21</v>
@@ -3674,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3818,7 +3818,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R42">
         <v>0</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4012,7 +4012,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R46">
         <v>15</v>
@@ -4065,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R47">
         <v>20</v>
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4209,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4259,7 +4259,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R51">
         <v>14</v>
@@ -4312,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4497,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4547,7 +4547,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R57">
         <v>9</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4647,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R59">
         <v>12</v>
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4750,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R61">
         <v>17</v>
@@ -4803,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4853,7 +4853,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R63">
         <v>13</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5053,7 +5053,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R67">
         <v>19</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5156,7 +5156,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R69">
         <v>8</v>
@@ -5209,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5309,7 +5309,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R72">
         <v>8</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5500,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5594,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5688,7 +5688,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5782,7 +5782,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5829,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5876,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5926,7 +5926,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R85">
         <v>23</v>
@@ -5979,7 +5979,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R86">
         <v>23</v>
@@ -6029,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6079,7 +6079,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R88">
         <v>3</v>
@@ -6129,7 +6129,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R89">
         <v>15</v>
@@ -6182,7 +6182,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R90">
         <v>12</v>
@@ -6235,7 +6235,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R91">
         <v>22</v>
@@ -6285,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6429,7 +6429,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R95">
         <v>8</v>
@@ -6482,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R96">
         <v>13</v>
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6585,7 +6585,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R98">
         <v>12</v>
@@ -6638,7 +6638,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R99">
         <v>14</v>
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6738,7 +6738,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R101">
         <v>18</v>
@@ -6788,7 +6788,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6885,7 +6885,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R104">
         <v>11</v>
@@ -6935,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R106">
         <v>23</v>
@@ -7038,7 +7038,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R107">
         <v>3</v>
@@ -7082,10 +7082,10 @@
         <v>1</v>
       </c>
       <c r="P108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7132,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7179,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7220,10 +7220,10 @@
         <v>1</v>
       </c>
       <c r="P111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q111">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7273,7 +7273,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R112">
         <v>16</v>
@@ -7326,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7376,7 +7376,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R114">
         <v>17</v>
@@ -7429,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R115">
         <v>19</v>
@@ -7482,7 +7482,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7532,7 +7532,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R117">
         <v>8</v>
@@ -7585,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7635,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R119">
         <v>14</v>
@@ -7685,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7782,7 +7782,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R122">
         <v>17</v>
@@ -7832,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7882,7 +7882,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R124">
         <v>22</v>
@@ -7935,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R125">
         <v>22</v>
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8038,7 +8038,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R127">
         <v>17</v>
@@ -8088,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8138,7 +8138,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R129">
         <v>28</v>
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8238,7 +8238,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8332,7 +8332,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8379,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8426,7 +8426,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8473,7 +8473,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8520,7 +8520,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8567,7 +8567,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R139">
         <v>19</v>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8758,7 +8758,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8808,7 +8808,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8858,7 +8858,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R144">
         <v>29</v>
@@ -8908,7 +8908,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8955,7 +8955,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9049,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9099,7 +9099,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R149">
         <v>17</v>
@@ -9149,7 +9149,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9199,7 +9199,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R151">
         <v>17</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9299,7 +9299,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R153">
         <v>20</v>
@@ -9352,7 +9352,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9402,7 +9402,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R155">
         <v>6</v>
@@ -9452,7 +9452,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9499,7 +9499,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9546,7 +9546,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9593,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9690,7 +9690,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R161">
         <v>16</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9787,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9837,7 +9837,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R164">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9934,7 +9934,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9981,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10078,7 +10078,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R169">
         <v>19</v>
@@ -10131,7 +10131,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R170">
         <v>18</v>
@@ -10181,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10231,7 +10231,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R172">
         <v>23</v>
@@ -10284,7 +10284,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10331,7 +10331,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10378,7 +10378,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10428,7 +10428,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R176">
         <v>9</v>
@@ -10478,7 +10478,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10528,7 +10528,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10578,7 +10578,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R179">
         <v>24</v>
@@ -10631,7 +10631,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10681,7 +10681,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R181">
         <v>11</v>
@@ -10734,7 +10734,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10784,7 +10784,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R183">
         <v>21</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10887,7 +10887,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R185">
         <v>4</v>
@@ -10937,7 +10937,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10984,7 +10984,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11031,7 +11031,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11122,7 +11122,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11169,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11219,7 +11219,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R192">
         <v>0</v>
@@ -11272,7 +11272,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11322,7 +11322,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R194">
         <v>15</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11422,7 +11422,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R196">
         <v>4</v>
@@ -11475,7 +11475,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R197">
         <v>16</v>
@@ -11528,7 +11528,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11575,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11622,7 +11622,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11672,7 +11672,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R201">
         <v>19</v>
@@ -11722,7 +11722,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11772,7 +11772,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R203">
         <v>24</v>
@@ -11822,7 +11822,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11869,7 +11869,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11919,7 +11919,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11969,7 +11969,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R207">
         <v>22</v>
@@ -12022,7 +12022,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R208">
         <v>21</v>
@@ -12072,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12122,7 +12122,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12172,7 +12172,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R211">
         <v>15</v>
@@ -12222,7 +12222,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12272,7 +12272,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R213">
         <v>25</v>
@@ -12325,7 +12325,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12375,7 +12375,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R215">
         <v>4</v>
@@ -12419,10 +12419,10 @@
         <v>1</v>
       </c>
       <c r="P216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q216">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12469,7 +12469,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12516,7 +12516,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12557,10 +12557,10 @@
         <v>1</v>
       </c>
       <c r="P219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q219">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12610,7 +12610,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R220">
         <v>13</v>
@@ -12663,7 +12663,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12713,7 +12713,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R222">
         <v>10</v>
@@ -12763,7 +12763,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12857,7 +12857,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12904,7 +12904,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12951,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12998,7 +12998,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13045,7 +13045,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13095,7 +13095,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13145,7 +13145,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R231">
         <v>7</v>
@@ -13198,7 +13198,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13248,7 +13248,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R233">
         <v>13</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13351,7 +13351,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R235">
         <v>10</v>
@@ -13401,7 +13401,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13448,7 +13448,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13495,7 +13495,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R238">
         <v>28</v>
@@ -13548,7 +13548,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R239">
         <v>25</v>
@@ -13598,7 +13598,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13648,7 +13648,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R241">
         <v>14</v>
@@ -13701,7 +13701,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13748,7 +13748,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13798,7 +13798,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13848,7 +13848,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R245">
         <v>11</v>
@@ -13901,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13951,7 +13951,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R247">
         <v>8</v>
@@ -14001,7 +14001,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14051,7 +14051,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R249">
         <v>21</v>
@@ -14104,7 +14104,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R250">
         <v>24</v>
@@ -14157,7 +14157,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14207,7 +14207,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R252">
         <v>19</v>
@@ -14260,7 +14260,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14310,7 +14310,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R254">
         <v>7</v>
@@ -14360,7 +14360,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14410,7 +14410,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R256">
         <v>15</v>
@@ -14463,7 +14463,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14513,7 +14513,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R258">
         <v>4</v>
@@ -14563,7 +14563,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14613,7 +14613,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R260">
         <v>17</v>
@@ -14663,7 +14663,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14710,7 +14710,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14757,7 +14757,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14804,7 +14804,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14851,7 +14851,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14898,7 +14898,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14948,7 +14948,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R267">
         <v>19</v>
@@ -14998,7 +14998,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15048,7 +15048,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R269">
         <v>20</v>
@@ -15098,7 +15098,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15148,7 +15148,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R271">
         <v>15</v>
@@ -15198,7 +15198,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15248,7 +15248,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R273">
         <v>13</v>
@@ -15298,7 +15298,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15348,7 +15348,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R275">
         <v>26</v>
@@ -15398,7 +15398,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15448,7 +15448,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R277">
         <v>7</v>
@@ -15498,7 +15498,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15548,7 +15548,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R279">
         <v>15</v>
@@ -15601,7 +15601,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15651,7 +15651,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R281">
         <v>7</v>
@@ -15701,7 +15701,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15748,7 +15748,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15792,7 +15792,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15839,7 +15839,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15886,7 +15886,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15936,7 +15936,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R287">
         <v>12</v>
@@ -15986,7 +15986,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16033,7 +16033,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16080,7 +16080,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16130,7 +16130,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R291">
         <v>25</v>
@@ -16180,7 +16180,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16230,7 +16230,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R293">
         <v>4</v>
@@ -16280,7 +16280,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16327,7 +16327,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16374,7 +16374,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16424,7 +16424,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R297">
         <v>0</v>
@@ -16477,7 +16477,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R298">
         <v>13</v>
@@ -16527,7 +16527,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16577,7 +16577,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16627,7 +16627,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R301">
         <v>5</v>
@@ -16677,7 +16677,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16724,7 +16724,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16771,7 +16771,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16818,7 +16818,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16865,7 +16865,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16912,7 +16912,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16959,7 +16959,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -17009,7 +17009,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R309">
         <v>33</v>
@@ -17059,7 +17059,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17109,7 +17109,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17159,7 +17159,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R312">
         <v>6</v>
@@ -17209,7 +17209,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17259,7 +17259,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R314">
         <v>8</v>
@@ -17309,7 +17309,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17359,7 +17359,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R316">
         <v>5</v>
@@ -17409,7 +17409,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17459,7 +17459,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R318">
         <v>5</v>
@@ -17512,7 +17512,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17562,7 +17562,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R320">
         <v>6</v>
@@ -17615,7 +17615,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R321">
         <v>26</v>
@@ -17668,7 +17668,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17718,7 +17718,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R323">
         <v>21</v>
@@ -17771,7 +17771,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17821,7 +17821,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R325">
         <v>9</v>
@@ -17871,7 +17871,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17921,7 +17921,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R327">
         <v>19</v>
@@ -17974,7 +17974,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -18024,7 +18024,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R329">
         <v>19</v>
@@ -18080,7 +18080,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R330">
         <v>4</v>
@@ -18130,7 +18130,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18177,7 +18177,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18224,7 +18224,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18271,7 +18271,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18318,7 +18318,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18365,7 +18365,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="337" spans="1:17">
@@ -18412,7 +18412,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="338" spans="1:17">
@@ -18459,7 +18459,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="339" spans="1:17">
@@ -18506,7 +18506,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="340" spans="1:17">
@@ -18553,7 +18553,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="341" spans="1:17">
@@ -18600,7 +18600,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="342" spans="1:17">
@@ -18647,7 +18647,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="343" spans="1:17">
@@ -18694,7 +18694,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="344" spans="1:17">
@@ -18741,7 +18741,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="345" spans="1:17">
@@ -18788,7 +18788,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="346" spans="1:17">
@@ -18835,7 +18835,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="347" spans="1:17">
@@ -18876,10 +18876,10 @@
         <v>1</v>
       </c>
       <c r="P347" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q347">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="348" spans="1:17">
@@ -18926,7 +18926,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="349" spans="1:17">
@@ -18973,7 +18973,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="350" spans="1:17">
@@ -19020,7 +19020,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="351" spans="1:17">
@@ -19067,7 +19067,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="352" spans="1:17">
@@ -19114,7 +19114,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19161,7 +19161,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19208,7 +19208,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19261,7 +19261,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="R355">
         <v>-600</v>
@@ -19314,7 +19314,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="R356">
         <v>0</v>
@@ -19358,10 +19358,10 @@
         <v>1</v>
       </c>
       <c r="P357" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q357">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19411,7 +19411,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R358">
         <v>19</v>
@@ -19464,7 +19464,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R359">
         <v>14</v>
@@ -19514,7 +19514,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19564,7 +19564,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R361">
         <v>14</v>
@@ -19614,7 +19614,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19664,7 +19664,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R363">
         <v>15</v>
@@ -19714,7 +19714,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19758,7 +19758,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19808,7 +19808,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R366">
         <v>20</v>
@@ -19858,7 +19858,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19908,7 +19908,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R368">
         <v>6</v>
@@ -19958,7 +19958,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -20005,7 +20005,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20055,7 +20055,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20105,7 +20105,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R372">
         <v>29</v>
@@ -20155,7 +20155,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20202,7 +20202,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20249,7 +20249,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20296,7 +20296,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20343,7 +20343,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20390,7 +20390,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20437,7 +20437,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20484,7 +20484,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20534,7 +20534,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R381">
         <v>4</v>
@@ -20587,7 +20587,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R382">
         <v>13</v>
@@ -20640,7 +20640,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R383">
         <v>18</v>
@@ -20693,7 +20693,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20743,7 +20743,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R385">
         <v>7</v>
@@ -20796,7 +20796,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R386">
         <v>19</v>
@@ -20849,7 +20849,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R387">
         <v>18</v>
@@ -20902,7 +20902,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20949,7 +20949,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20996,7 +20996,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21043,7 +21043,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21093,7 +21093,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R392">
         <v>17</v>
@@ -21140,7 +21140,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21190,7 +21190,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R394">
         <v>13</v>
@@ -21240,7 +21240,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21287,7 +21287,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21334,7 +21334,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21381,7 +21381,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21431,7 +21431,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R399">
         <v>4</v>
@@ -21481,7 +21481,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21528,7 +21528,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21575,7 +21575,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21625,7 +21625,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R403">
         <v>10</v>
@@ -21678,7 +21678,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R404">
         <v>17</v>
@@ -21728,7 +21728,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21775,7 +21775,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21825,7 +21825,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21875,7 +21875,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R408">
         <v>23</v>
@@ -21928,7 +21928,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21978,7 +21978,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R410">
         <v>9</v>
@@ -22028,7 +22028,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22078,7 +22078,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22128,7 +22128,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R413">
         <v>16</v>
@@ -22181,7 +22181,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22228,7 +22228,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22275,7 +22275,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22322,7 +22322,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22369,7 +22369,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22416,7 +22416,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22466,7 +22466,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R420">
         <v>7</v>
@@ -22519,7 +22519,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22569,7 +22569,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R422">
         <v>21</v>
@@ -22619,7 +22619,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22666,7 +22666,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22713,7 +22713,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22763,7 +22763,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R426">
         <v>17</v>
@@ -22813,7 +22813,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22863,7 +22863,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R428">
         <v>4</v>
@@ -22913,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22960,7 +22960,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -23010,7 +23010,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R431">
         <v>21</v>
@@ -23060,7 +23060,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23107,7 +23107,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23154,7 +23154,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23201,7 +23201,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23248,7 +23248,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23298,7 +23298,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R437">
         <v>11</v>
@@ -23351,7 +23351,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23401,7 +23401,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R439">
         <v>11</v>
@@ -23454,7 +23454,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R440">
         <v>17</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23554,7 +23554,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R442">
         <v>6</v>
@@ -23607,7 +23607,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23657,7 +23657,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R444">
         <v>16</v>
@@ -23710,7 +23710,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R445">
         <v>13</v>
@@ -23763,7 +23763,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23813,7 +23813,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R447">
         <v>25</v>
@@ -23863,7 +23863,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23957,7 +23957,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -24007,7 +24007,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24057,7 +24057,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R452">
         <v>0</v>
@@ -24107,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24154,7 +24154,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24201,7 +24201,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24295,7 +24295,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24342,7 +24342,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24389,7 +24389,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24439,7 +24439,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R460">
         <v>15</v>
@@ -24489,7 +24489,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24536,7 +24536,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24583,7 +24583,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24630,7 +24630,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24677,7 +24677,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24727,7 +24727,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R466">
         <v>16</v>
@@ -24780,7 +24780,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R467">
         <v>12</v>
@@ -24830,7 +24830,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24877,7 +24877,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24924,7 +24924,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24971,7 +24971,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -25021,7 +25021,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R472">
         <v>9</v>
@@ -25074,7 +25074,7 @@
         <v>1</v>
       </c>
       <c r="Q473">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R473">
         <v>5</v>
@@ -25124,7 +25124,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25218,7 +25218,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25265,7 +25265,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25315,7 +25315,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R478">
         <v>16</v>
@@ -25368,7 +25368,7 @@
         <v>1</v>
       </c>
       <c r="Q479">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R479">
         <v>9</v>
@@ -25418,7 +25418,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25468,7 +25468,7 @@
         <v>1</v>
       </c>
       <c r="Q481">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R481">
         <v>2</v>
@@ -25518,7 +25518,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25568,7 +25568,7 @@
         <v>1</v>
       </c>
       <c r="Q483">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R483">
         <v>13</v>
@@ -25621,7 +25621,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25671,7 +25671,7 @@
         <v>1</v>
       </c>
       <c r="Q485">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R485">
         <v>8</v>
@@ -25721,7 +25721,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25762,10 +25762,10 @@
         <v>1</v>
       </c>
       <c r="P487" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q487">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
